--- a/BottomConnector/Label.xlsx
+++ b/BottomConnector/Label.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Makers\M5Stack\case\bottom_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Makers\M5Stack\M5Stack_case\BottomConnector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28341611-83C6-49FB-AAA6-8285814C0D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACDBCEF-DBE1-4223-AEDE-034E945B76C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>RST</t>
     <phoneticPr fontId="1"/>
@@ -611,7 +611,7 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F6" sqref="F6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -707,6 +707,30 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="11">
